--- a/biology/Zoologie/Aeshna_sitchensis/Aeshna_sitchensis.xlsx
+++ b/biology/Zoologie/Aeshna_sitchensis/Aeshna_sitchensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aeshna sitchensis est une espèce d'insectes de la famille des Aeshnidae appartenant au sous-ordre des anisoptères dans l'ordre des odonates[1]. Son nom vernaculaire est l'æschne à zigzags.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aeshna sitchensis est une espèce d'insectes de la famille des Aeshnidae appartenant au sous-ordre des anisoptères dans l'ordre des odonates. Son nom vernaculaire est l'æschne à zigzags.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette æschne mesure près de 60 mm de long. Les motifs abdominaux sont bleus chez le mâle et peuvent être jaunes à beige pâle chez la femelle. Les bandes thoraciques forment une sorte de zigzag, un motif qui est à l'origine de son nom vernaculaire[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette æschne mesure près de 60 mm de long. Les motifs abdominaux sont bleus chez le mâle et peuvent être jaunes à beige pâle chez la femelle. Les bandes thoraciques forment une sorte de zigzag, un motif qui est à l'origine de son nom vernaculaire. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On retrouve l'espèce à travers le Canada et dans certains États du Nord des États-Unis[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve l'espèce à travers le Canada et dans certains États du Nord des États-Unis.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce semble apprécier les mares et les étangs tourbeux. On peut l'observer posée au sol ou sur les troncs d'arbres à proximité des tourbières[4]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce semble apprécier les mares et les étangs tourbeux. On peut l'observer posée au sol ou sur les troncs d'arbres à proximité des tourbières. 
 </t>
         </is>
       </c>
